--- a/dataset/evol_python.xlsx
+++ b/dataset/evol_python.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="103">
   <si>
     <t>grupo</t>
   </si>
@@ -663,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2031,6 +2031,230 @@
       </c>
       <c r="D97">
         <v>-6.81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>79.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109">
+        <v>72.459999999999994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110">
+        <v>90.86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>-6.21</v>
       </c>
     </row>
   </sheetData>
@@ -2045,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3123,6 +3347,216 @@
         <v>77</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80">
+        <v>69.62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81">
+        <v>39.72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82">
+        <v>79.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89">
+        <v>83.01</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3130,9 +3564,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3153,150 +3589,150 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>45435</v>
+        <v>45278</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>45435</v>
+        <v>45278</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>45435</v>
+        <v>45278</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>45435</v>
+        <v>45278</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5">
-        <v>29.8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>45435</v>
+        <v>45278</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
       <c r="C6">
-        <v>78.5</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>45435</v>
+        <v>45278</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>45435</v>
+        <v>45278</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8">
-        <v>56.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>45435</v>
+        <v>45278</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9">
-        <v>56.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>45435</v>
+        <v>45278</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
       </c>
       <c r="C10">
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>45435</v>
+        <v>45278</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>45461</v>
+        <v>45370</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>45461</v>
+        <v>45370</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>45461</v>
+        <v>45370</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
       </c>
       <c r="C14">
-        <v>30.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>45461</v>
+        <v>45370</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -3307,172 +3743,172 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>45461</v>
+        <v>45370</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
       </c>
       <c r="C16">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>45461</v>
+        <v>45370</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17">
-        <v>95</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>45461</v>
+        <v>45370</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
       </c>
       <c r="C18">
-        <v>56.5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>45461</v>
+        <v>45370</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>45461</v>
+        <v>45370</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20">
-        <v>36.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>45461</v>
+        <v>45370</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>45520</v>
+        <v>45435</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22">
-        <v>36.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>45520</v>
+        <v>45435</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23">
-        <v>35.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>45520</v>
+        <v>45435</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24">
-        <v>30.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>45520</v>
+        <v>45435</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>45520</v>
+        <v>45435</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
       <c r="C26">
-        <v>81</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>45520</v>
+        <v>45435</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27">
-        <v>97.5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>45520</v>
+        <v>45435</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28">
-        <v>58</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>45520</v>
+        <v>45435</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>45520</v>
+        <v>45435</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="C30">
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>45520</v>
+        <v>45435</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
@@ -3483,7 +3919,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>45579</v>
+        <v>45461</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -3494,7 +3930,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>45579</v>
+        <v>45461</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
@@ -3505,18 +3941,18 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>45579</v>
+        <v>45461</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>45579</v>
+        <v>45461</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
@@ -3527,95 +3963,95 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>45579</v>
+        <v>45461</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
       </c>
       <c r="C36">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>45579</v>
+        <v>45461</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
       </c>
       <c r="C37">
-        <v>69.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>45579</v>
+        <v>45461</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
       <c r="C38">
-        <v>59</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>45579</v>
+        <v>45461</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
       </c>
       <c r="C39">
-        <v>59.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>45579</v>
+        <v>45461</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>45579</v>
+        <v>45461</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
       </c>
       <c r="C41">
-        <v>38.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>45638</v>
+        <v>45520</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>45638</v>
+        <v>45520</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>45638</v>
+        <v>45520</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -3626,62 +4062,62 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>45638</v>
+        <v>45520</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45">
-        <v>29.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>45638</v>
+        <v>45520</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
       <c r="C46">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>45638</v>
+        <v>45520</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47">
-        <v>97</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>45638</v>
+        <v>45520</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
       <c r="C48">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>45638</v>
+        <v>45520</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
       <c r="C49">
-        <v>58.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>45638</v>
+        <v>45520</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -3692,7 +4128,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>45638</v>
+        <v>45520</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
@@ -3703,106 +4139,106 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>45278</v>
+        <v>45579</v>
       </c>
       <c r="B52" t="s">
         <v>40</v>
       </c>
       <c r="C52">
-        <v>34.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>45278</v>
+        <v>45579</v>
       </c>
       <c r="B53" t="s">
         <v>41</v>
       </c>
       <c r="C53">
-        <v>34.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>45278</v>
+        <v>45579</v>
       </c>
       <c r="B54" t="s">
         <v>42</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>45278</v>
+        <v>45579</v>
       </c>
       <c r="B55" t="s">
         <v>43</v>
       </c>
       <c r="C55">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>45278</v>
+        <v>45579</v>
       </c>
       <c r="B56" t="s">
         <v>44</v>
       </c>
       <c r="C56">
-        <v>86.5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>45278</v>
+        <v>45579</v>
       </c>
       <c r="B57" t="s">
         <v>45</v>
       </c>
       <c r="C57">
-        <v>100</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>45278</v>
+        <v>45579</v>
       </c>
       <c r="B58" t="s">
         <v>46</v>
       </c>
       <c r="C58">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>45278</v>
+        <v>45579</v>
       </c>
       <c r="B59" t="s">
         <v>47</v>
       </c>
       <c r="C59">
-        <v>60</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>45278</v>
+        <v>45579</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
       </c>
       <c r="C60">
-        <v>38.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>45278</v>
+        <v>45579</v>
       </c>
       <c r="B61" t="s">
         <v>49</v>
@@ -3813,106 +4249,106 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>45370</v>
+        <v>45638</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
       </c>
       <c r="C62">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>45370</v>
+        <v>45638</v>
       </c>
       <c r="B63" t="s">
         <v>41</v>
       </c>
       <c r="C63">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>45370</v>
+        <v>45638</v>
       </c>
       <c r="B64" t="s">
         <v>42</v>
       </c>
       <c r="C64">
-        <v>29</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>45370</v>
+        <v>45638</v>
       </c>
       <c r="B65" t="s">
         <v>43</v>
       </c>
       <c r="C65">
-        <v>29</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>45370</v>
+        <v>45638</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
       </c>
       <c r="C66">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>45370</v>
+        <v>45638</v>
       </c>
       <c r="B67" t="s">
         <v>45</v>
       </c>
       <c r="C67">
-        <v>98.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>45370</v>
+        <v>45638</v>
       </c>
       <c r="B68" t="s">
         <v>46</v>
       </c>
       <c r="C68">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>45370</v>
+        <v>45638</v>
       </c>
       <c r="B69" t="s">
         <v>47</v>
       </c>
       <c r="C69">
-        <v>61</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>45370</v>
+        <v>45638</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
       </c>
       <c r="C70">
-        <v>39</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>45370</v>
+        <v>45638</v>
       </c>
       <c r="B71" t="s">
         <v>49</v>
@@ -3921,8 +4357,122 @@
         <v>39</v>
       </c>
     </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81">
+        <v>39.5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C71"/>
+  <autoFilter ref="A1:C71">
+    <sortState ref="A2:C71">
+      <sortCondition ref="A2:A71"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A52:C71">
     <sortCondition ref="A52"/>
   </sortState>
@@ -3934,7 +4484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A74" sqref="A74:D76"/>
     </sheetView>
   </sheetViews>
@@ -5016,8 +5566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338:E361"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dataset/evol_python.xlsx
+++ b/dataset/evol_python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="13500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="13500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="adp" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">adp!$A$1:$D$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">inbody_full!$A$1:$E$337</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">inbody_resumo!$A$1:$D$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">medidas!$A$1:$C$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">medidas!$A$1:$C$81</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92:D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3566,7 +3566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
@@ -4387,7 +4387,7 @@
         <v>42</v>
       </c>
       <c r="C74">
-        <v>35.6</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -4468,11 +4468,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C71">
-    <sortState ref="A2:C71">
-      <sortCondition ref="A2:A71"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:C81"/>
   <sortState ref="A52:C71">
     <sortCondition ref="A52"/>
   </sortState>
@@ -5566,7 +5562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+    <sheetView topLeftCell="A328" workbookViewId="0">
       <selection activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>

--- a/dataset/evol_python.xlsx
+++ b/dataset/evol_python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="adp" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="inbody_full" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">adp!$A$1:$D$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">adp!$A$1:$D$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">inbody_full!$A$1:$E$337</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">inbody_resumo!$A$1:$D$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">medidas!$A$1:$C$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">medidas!$A$1:$C$83</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="105">
   <si>
     <t>grupo</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>braço esquerdo contra</t>
+  </si>
+  <si>
+    <t>braço direito contra</t>
   </si>
 </sst>
 </file>
@@ -663,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92:D93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2257,8 +2263,232 @@
         <v>-6.21</v>
       </c>
     </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>81.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125">
+        <v>75.150000000000006</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126">
+        <v>91.93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>-7.28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D81"/>
+  <autoFilter ref="A1:D129"/>
   <sortState ref="A2:D97">
     <sortCondition ref="A2:A97"/>
   </sortState>
@@ -2269,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3557,6 +3787,216 @@
         <v>68</v>
       </c>
     </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95">
+        <v>71.94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96">
+        <v>41.01</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97">
+        <v>81.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102">
+        <v>26.69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3564,16 +4004,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4373,10 +4813,10 @@
         <v>45667</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C73">
-        <v>35.6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -4384,10 +4824,10 @@
         <v>45667</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74">
-        <v>30.5</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -4395,10 +4835,10 @@
         <v>45667</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C75">
-        <v>29.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -4406,10 +4846,10 @@
         <v>45667</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C76">
-        <v>77.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -4417,10 +4857,10 @@
         <v>45667</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C77">
-        <v>97.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -4428,10 +4868,10 @@
         <v>45667</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C78">
-        <v>58.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -4439,10 +4879,10 @@
         <v>45667</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C79">
-        <v>58.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -4450,10 +4890,10 @@
         <v>45667</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C80">
-        <v>38</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -4461,14 +4901,168 @@
         <v>45667</v>
       </c>
       <c r="B81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B83" t="s">
         <v>49</v>
       </c>
-      <c r="C81">
+      <c r="C83">
         <v>39.5</v>
       </c>
     </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B86" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95">
+        <v>39.6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C81"/>
+  <autoFilter ref="A1:C82"/>
   <sortState ref="A52:C71">
     <sortCondition ref="A52"/>
   </sortState>
